--- a/public/assets/misc/onlinejudge用户导入模板.xlsx
+++ b/public/assets/misc/onlinejudge用户导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bLue/Documents/git_sdutacm/onlinejudge2/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bLue/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A4568-6B57-7F4C-B1DF-20D63544F8F7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF1DFD-61ED-2543-AB84-2D009A32531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22960" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22960" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>用户名</t>
   </si>
@@ -62,25 +62,48 @@
   </si>
   <si>
     <t>初始密码</t>
+  </si>
+  <si>
+    <t>团队账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,16 +129,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -388,11 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
@@ -403,7 +429,7 @@
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +454,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>14118520060</v>
       </c>
@@ -454,8 +483,12 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>